--- a/Code_and_Documents/BOM.xlsx
+++ b/Code_and_Documents/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/589633b4559128e5/Documents/TOS/Code_and_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{345CE975-AC50-4ED4-B002-02B2EFC467B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A6B4CFF8-0BF1-4332-82C3-9E8600FF04C9}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{345CE975-AC50-4ED4-B002-02B2EFC467B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E05EB1F1-77C0-421B-BB99-047C00D5ACCC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -828,7 +828,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1091,7 @@
       <c r="D15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       <c r="D17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       <c r="D18" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="16" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="D20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       <c r="D21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="16" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1289,8 +1289,13 @@
     <hyperlink ref="E25" r:id="rId3" xr:uid="{89C7AFCF-3145-4425-AFBE-206A8E71BBD4}"/>
     <hyperlink ref="E26" r:id="rId4" xr:uid="{052A3C8A-3F4E-4C0E-92CF-F966FD0A034E}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{2A2116C5-C934-4CA6-B86E-D371D8A4886C}"/>
+    <hyperlink ref="E15" r:id="rId6" xr:uid="{D7197C7E-D5F5-4FDF-B58D-BF696FF063A3}"/>
+    <hyperlink ref="E17" r:id="rId7" xr:uid="{D70C4AAA-369A-4812-A6A3-E0D6B4C70C35}"/>
+    <hyperlink ref="E18" r:id="rId8" xr:uid="{24F0299A-67FF-41AD-966E-EF554BE30C40}"/>
+    <hyperlink ref="E20" r:id="rId9" xr:uid="{DC259991-DE86-46B7-9A46-99C5587B3666}"/>
+    <hyperlink ref="E21" r:id="rId10" xr:uid="{FE3E7A47-D9E2-4962-9D2E-30735DA48F13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Code_and_Documents/BOM.xlsx
+++ b/Code_and_Documents/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/589633b4559128e5/Documents/TOS/Code_and_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{345CE975-AC50-4ED4-B002-02B2EFC467B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E05EB1F1-77C0-421B-BB99-047C00D5ACCC}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{345CE975-AC50-4ED4-B002-02B2EFC467B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F658E57-F054-49C7-BAC3-001D29A25B97}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="4950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -828,7 +828,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
